--- a/biology/Médecine/Classification_de_Gustilo_pour_les_fractures_ouvertes/Classification_de_Gustilo_pour_les_fractures_ouvertes.xlsx
+++ b/biology/Médecine/Classification_de_Gustilo_pour_les_fractures_ouvertes/Classification_de_Gustilo_pour_les_fractures_ouvertes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification de Gustilo est parmi les classifications les plus couramment utilisées pour les fractures ouvertes. Elle a été établie par Ramon Gustilo et Anderson, puis modifiée et élargie par Gustilo, Mendoza, et Williams[1],[2],[3].
-Cette classification utilise la quantité d'énergie, l'étendue des lésions des tissus mous et le degré de la contamination pour évaluer la gravité fracture. Allant du type 1 au type 3C, l'énergie du traumatisme est de plus en plus élevée, les lésions osseuses et des tissus mous sont de plus en plus graves, avec un risque croissant de complications potentielles. Il est important de savoir que le type 3C implique une lésion vasculaire associée[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification de Gustilo est parmi les classifications les plus couramment utilisées pour les fractures ouvertes. Elle a été établie par Ramon Gustilo et Anderson, puis modifiée et élargie par Gustilo, Mendoza, et Williams.
+Cette classification utilise la quantité d'énergie, l'étendue des lésions des tissus mous et le degré de la contamination pour évaluer la gravité fracture. Allant du type 1 au type 3C, l'énergie du traumatisme est de plus en plus élevée, les lésions osseuses et des tissus mous sont de plus en plus graves, avec un risque croissant de complications potentielles. Il est important de savoir que le type 3C implique une lésion vasculaire associée.
 </t>
         </is>
       </c>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,9 +552,11 @@
           <t>Fiabilité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il y a beaucoup de discussions au sujet de la fiabilité de ce système de classification. Différentes études montrent une fiabilité inter-observateur de l'ordre de 60 % (allant de 42 à 92 %)[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il y a beaucoup de discussions au sujet de la fiabilité de ce système de classification. Différentes études montrent une fiabilité inter-observateur de l'ordre de 60 % (allant de 42 à 92 %).
 Une autre question importante de ce système de classification est sa capacité à prédire les résultats. À cet effet, d'autres systèmes de classification, comme le Mangled Extremity Severity Score (MESS) et Limb Salvage Index (LSI) ont été mis au point.
 </t>
         </is>
